--- a/REVER_DailyTracker_20201008.xlsx
+++ b/REVER_DailyTracker_20201008.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB2A4CF-6735-43EB-A359-F3A0E5B12402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6572A0D8-C328-407E-B939-F3C1108D13E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="44">
   <si>
     <t>Task</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>Two sample Flyer design</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount changes and Issue</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount Summary &amp; Details</t>
+  </si>
+  <si>
+    <t>DRS - Daily Revenue</t>
   </si>
 </sst>
 </file>
@@ -326,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -429,6 +438,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1101,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1182,39 +1194,87 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>44109</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>44110</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>44111</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>44112</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
@@ -2342,7 +2402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/REVER_DailyTracker_20201008.xlsx
+++ b/REVER_DailyTracker_20201008.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6572A0D8-C328-407E-B939-F3C1108D13E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFFF455-5A0E-4A3C-9534-551813DDC0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -167,6 +167,34 @@
   </si>
   <si>
     <t>DRS - Daily Revenue</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>InvoiceUpdate IW/OW error correction</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B</t>
+  </si>
+  <si>
+    <t>New API for inserting job sheet details for Pickup</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>Correction Job Details API to get Pickup Ack information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In /instantfix/create and instantfix/update:
+Have added  "warranty_type":"OUT" ,so please pass this argument to this APIs,
+Also in Service request have updated job_id also now status would Requested instead of Job_in_progress,also Warranty_type is stored in RST_JOB
+Also in updateimei-&gt; API whatever parameters are passed it is stored in warranty information,the one as same as in add devices
+</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2C</t>
   </si>
 </sst>
 </file>
@@ -218,7 +246,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -335,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -441,6 +469,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -763,15 +796,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="78.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -795,7 +828,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -896,15 +929,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1007,15 +1040,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1113,19 +1146,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1433,19 +1466,403 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43840</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>43961</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="48">
+        <v>43992</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="49">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="48">
+        <v>44022</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="49">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="216">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="48">
+        <v>44053</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="49">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44109</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>44110</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>44111</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44112</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1540,23 +1957,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1582,206 +1999,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="21">
         <v>44105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="26.45" customHeight="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="25.9" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="25.9" customHeight="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1843,23 +2082,342 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31">
+        <v>44106</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>44107</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>44108</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44109</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1885,28 +2443,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="28">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>18</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1968,436 +2512,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31">
-        <v>44106</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31">
-        <v>44107</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31">
-        <v>44108</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44109</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="31">
-        <v>44111</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
@@ -2406,15 +2520,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2440,7 +2554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2506,7 +2620,7 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2527,7 +2641,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -2548,7 +2662,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2569,7 +2683,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
